--- a/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplatesTempFolder/BIR2307_CV-2019-00003_Vendor1_WC160.xlsx
+++ b/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplatesTempFolder/BIR2307_CV-2019-00003_Vendor1_WC160.xlsx
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>9</t>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">Payor   Information</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>7</t>
@@ -205,7 +205,7 @@
     <t>(Signature Over Printed Name)</t>
   </si>
   <si>
-    <t>08-06-19</t>
+    <t>08-08-19</t>
   </si>
   <si>
     <t>Tax Agent Accreditation No./Attorney's Roll No. (if applicable)</t>
@@ -15136,13 +15136,13 @@
         <v>3</v>
       </c>
       <c r="L8" s="172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" s="174" t="s">
         <v>1</v>
       </c>
       <c r="N8" s="172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="17"/>
@@ -15164,13 +15164,13 @@
         <v>3</v>
       </c>
       <c r="AB8" s="172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC8" s="174" t="s">
         <v>1</v>
       </c>
       <c r="AD8" s="172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE8" s="17"/>
       <c r="AF8" s="18"/>
@@ -15196,7 +15196,7 @@
     <row r="9" ht="7.5" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -15211,7 +15211,7 @@
       <c r="M9" s="175"/>
       <c r="N9" s="173"/>
       <c r="O9" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
@@ -15219,7 +15219,7 @@
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
@@ -15231,7 +15231,7 @@
       <c r="AC9" s="175"/>
       <c r="AD9" s="173"/>
       <c r="AE9" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF9" s="17"/>
       <c r="AG9" s="17"/>
@@ -15307,12 +15307,12 @@
     </row>
     <row r="11" ht="11.25" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="170"/>
       <c r="F11" s="170"/>
@@ -15363,10 +15363,10 @@
     </row>
     <row r="12" ht="12" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="17"/>
@@ -15420,7 +15420,7 @@
     <row r="13" ht="17.1" customHeight="1">
       <c r="A13" s="29"/>
       <c r="B13" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="17"/>
@@ -15429,37 +15429,37 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L13" s="33"/>
       <c r="M13" s="124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N13" s="125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O13" s="126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P13" s="34"/>
       <c r="Q13" s="124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13" s="125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S13" s="126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T13" s="34"/>
       <c r="U13" s="124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V13" s="125"/>
       <c r="W13" s="126"/>
@@ -15545,10 +15545,10 @@
     </row>
     <row r="15" ht="17.1" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="17"/>
@@ -15557,7 +15557,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="202"/>
       <c r="K15" s="202"/>
@@ -15655,10 +15655,10 @@
     </row>
     <row r="17" ht="26.25" customHeight="1">
       <c r="A17" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="17"/>
@@ -15667,7 +15667,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="198" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="199"/>
       <c r="K17" s="199"/>
@@ -15697,7 +15697,7 @@
       <c r="AI17" s="200"/>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL17" s="17"/>
       <c r="AM17" s="15"/>
@@ -15819,10 +15819,10 @@
     </row>
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="17"/>
@@ -15859,7 +15859,7 @@
       <c r="AI20" s="208"/>
       <c r="AJ20" s="18"/>
       <c r="AK20" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL20" s="17"/>
       <c r="AM20" s="15"/>
@@ -15979,7 +15979,7 @@
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="170"/>
       <c r="F23" s="170"/>
@@ -16030,10 +16030,10 @@
     </row>
     <row r="24" ht="12" customHeight="1">
       <c r="A24" s="29" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="17"/>
@@ -16087,7 +16087,7 @@
     <row r="25" ht="17.1" customHeight="1">
       <c r="A25" s="29"/>
       <c r="B25" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="17"/>
@@ -16102,24 +16102,24 @@
         <v>3</v>
       </c>
       <c r="K25" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="38" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N25" s="41" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O25" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P25" s="34"/>
       <c r="Q25" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R25" s="41" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="S25" s="40" t="s">
         <v>25</v>
@@ -16331,7 +16331,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="17"/>
@@ -16372,7 +16372,7 @@
         <v>30</v>
       </c>
       <c r="AK29" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL29" s="17"/>
       <c r="AM29" s="15"/>
